--- a/yearbook-choice/ELC yearbook choice.xlsx
+++ b/yearbook-choice/ELC yearbook choice.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="11214"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tkrivonak/Desktop/My Projects/schooldays/yearbook-choice/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B517FD0-3FA5-8A46-A4EC-2D283975BDD9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10050" yWindow="885" windowWidth="17130" windowHeight="11280"/>
+    <workbookView xWindow="10060" yWindow="880" windowWidth="17140" windowHeight="11280" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ELC yrbk" sheetId="1" r:id="rId1"/>
@@ -16,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="94">
   <si>
     <t>Student Id</t>
   </si>
@@ -303,8 +309,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -362,13 +368,21 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -406,7 +420,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -440,6 +454,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -474,9 +489,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -649,20 +665,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H14"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+      <selection activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="4" max="4" width="4.140625" style="2" customWidth="1"/>
-    <col min="8" max="8" width="17.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="4.1640625" style="2" customWidth="1"/>
+    <col min="8" max="8" width="17.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="16.5" thickBot="1">
+    <row r="1" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -688,7 +704,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>187259</v>
       </c>
@@ -714,7 +730,7 @@
         <v>45936.790196759262</v>
       </c>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>187259</v>
       </c>
@@ -740,7 +756,7 @@
         <v>45936.93178240741</v>
       </c>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>180883</v>
       </c>
@@ -766,7 +782,7 @@
         <v>45939.735856481479</v>
       </c>
     </row>
-    <row r="5" spans="1:8">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>168738</v>
       </c>
@@ -792,7 +808,7 @@
         <v>45937.055185185185</v>
       </c>
     </row>
-    <row r="6" spans="1:8">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>184422</v>
       </c>
@@ -818,7 +834,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="7" spans="1:8">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>172144</v>
       </c>
@@ -840,11 +856,11 @@
       <c r="G7" t="s">
         <v>88</v>
       </c>
-      <c r="H7" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8">
+      <c r="H7" s="1">
+        <v>45937.055185185185</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>172144</v>
       </c>
@@ -870,7 +886,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="9" spans="1:8">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>175738</v>
       </c>
@@ -896,7 +912,7 @@
         <v>45937.837893518517</v>
       </c>
     </row>
-    <row r="10" spans="1:8">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>175738</v>
       </c>
@@ -922,7 +938,7 @@
         <v>45937.83829861111</v>
       </c>
     </row>
-    <row r="11" spans="1:8">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>183788</v>
       </c>
@@ -948,7 +964,7 @@
         <v>45941.346053240741</v>
       </c>
     </row>
-    <row r="12" spans="1:8">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>183788</v>
       </c>
@@ -974,7 +990,7 @@
         <v>45941.346076388887</v>
       </c>
     </row>
-    <row r="13" spans="1:8">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>91</v>
       </c>
@@ -1000,7 +1016,7 @@
         <v>45937.678495370368</v>
       </c>
     </row>
-    <row r="14" spans="1:8">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>146490</v>
       </c>
@@ -1027,7 +1043,7 @@
       </c>
     </row>
   </sheetData>
-  <sortState ref="A2:H167">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:H167">
     <sortCondition ref="C1"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1036,19 +1052,19 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:H22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C1" sqref="C1:C1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="4" max="4" width="3.85546875" style="2" customWidth="1"/>
+    <col min="4" max="4" width="3.83203125" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="16.5" thickBot="1">
+    <row r="1" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>36</v>
       </c>
@@ -1074,7 +1090,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>51422</v>
       </c>
@@ -1100,7 +1116,7 @@
         <v>45936.764953703707</v>
       </c>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>90001</v>
       </c>
@@ -1126,7 +1142,7 @@
         <v>45935.921215277776</v>
       </c>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>90002</v>
       </c>
@@ -1152,7 +1168,7 @@
         <v>45936.857395833336</v>
       </c>
     </row>
-    <row r="5" spans="1:8">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>47554</v>
       </c>
@@ -1178,7 +1194,7 @@
         <v>45938.706574074073</v>
       </c>
     </row>
-    <row r="6" spans="1:8">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>51421</v>
       </c>
@@ -1204,7 +1220,7 @@
         <v>45935.899155092593</v>
       </c>
     </row>
-    <row r="7" spans="1:8">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>28381</v>
       </c>
@@ -1230,7 +1246,7 @@
         <v>45937.683645833335</v>
       </c>
     </row>
-    <row r="8" spans="1:8">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>150759</v>
       </c>
@@ -1256,7 +1272,7 @@
         <v>45936.95071759259</v>
       </c>
     </row>
-    <row r="9" spans="1:8">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>150759</v>
       </c>
@@ -1282,7 +1298,7 @@
         <v>45936.950740740744</v>
       </c>
     </row>
-    <row r="10" spans="1:8">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>173984</v>
       </c>
@@ -1308,7 +1324,7 @@
         <v>45938.674155092594</v>
       </c>
     </row>
-    <row r="11" spans="1:8">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>27647</v>
       </c>
@@ -1334,7 +1350,7 @@
         <v>45935.920671296299</v>
       </c>
     </row>
-    <row r="12" spans="1:8">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>49520</v>
       </c>
@@ -1360,7 +1376,7 @@
         <v>45936.612187500003</v>
       </c>
     </row>
-    <row r="13" spans="1:8">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>86302</v>
       </c>
@@ -1386,7 +1402,7 @@
         <v>45936.671817129631</v>
       </c>
     </row>
-    <row r="14" spans="1:8">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>51711</v>
       </c>
@@ -1412,7 +1428,7 @@
         <v>45936.861192129632</v>
       </c>
     </row>
-    <row r="15" spans="1:8">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>187174</v>
       </c>
@@ -1438,7 +1454,7 @@
         <v>45938.997175925928</v>
       </c>
     </row>
-    <row r="16" spans="1:8">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>173647</v>
       </c>
@@ -1464,7 +1480,7 @@
         <v>45938.075706018521</v>
       </c>
     </row>
-    <row r="17" spans="1:8">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>86407</v>
       </c>
@@ -1490,7 +1506,7 @@
         <v>45936.856736111113</v>
       </c>
     </row>
-    <row r="18" spans="1:8">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>20896</v>
       </c>
@@ -1516,7 +1532,7 @@
         <v>45935.920185185183</v>
       </c>
     </row>
-    <row r="19" spans="1:8">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>146490</v>
       </c>
@@ -1542,7 +1558,7 @@
         <v>45938.153912037036</v>
       </c>
     </row>
-    <row r="20" spans="1:8">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>49823</v>
       </c>
@@ -1568,7 +1584,7 @@
         <v>45940.03466435185</v>
       </c>
     </row>
-    <row r="21" spans="1:8">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>173240</v>
       </c>
@@ -1594,7 +1610,7 @@
         <v>45938.951689814814</v>
       </c>
     </row>
-    <row r="22" spans="1:8">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>174421</v>
       </c>
@@ -1621,7 +1637,7 @@
       </c>
     </row>
   </sheetData>
-  <sortState ref="A2:H22">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:H22">
     <sortCondition ref="C1"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1629,12 +1645,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/yearbook-choice/ELC yearbook choice.xlsx
+++ b/yearbook-choice/ELC yearbook choice.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="11214"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tkrivonak/Desktop/My Projects/schooldays/yearbook-choice/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B517FD0-3FA5-8A46-A4EC-2D283975BDD9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10060" yWindow="880" windowWidth="17140" windowHeight="11280" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="10065" yWindow="885" windowWidth="17145" windowHeight="11280"/>
   </bookViews>
   <sheets>
     <sheet name="ELC yrbk" sheetId="1" r:id="rId1"/>
@@ -22,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="95">
   <si>
     <t>Student Id</t>
   </si>
@@ -304,13 +298,16 @@
   </si>
   <si>
     <t>test</t>
+  </si>
+  <si>
+    <t>error</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -380,9 +377,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Office 2007 - 2010">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -420,7 +417,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2007 - 2010">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -454,7 +451,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -489,10 +485,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2007 - 2010">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -665,20 +660,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H14"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:I14"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="G19" sqref="G19"/>
+      <selection activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15.75"/>
   <cols>
-    <col min="4" max="4" width="4.1640625" style="2" customWidth="1"/>
-    <col min="8" max="8" width="17.1640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="4.140625" style="2" customWidth="1"/>
+    <col min="8" max="8" width="17.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" ht="16.5" thickBot="1">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -704,7 +699,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:9">
       <c r="A2">
         <v>187259</v>
       </c>
@@ -730,7 +725,7 @@
         <v>45936.790196759262</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:9">
       <c r="A3">
         <v>187259</v>
       </c>
@@ -755,8 +750,11 @@
       <c r="H3" s="1">
         <v>45936.93178240741</v>
       </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
       <c r="A4">
         <v>180883</v>
       </c>
@@ -781,8 +779,11 @@
       <c r="H4" s="1">
         <v>45939.735856481479</v>
       </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
       <c r="A5">
         <v>168738</v>
       </c>
@@ -807,94 +808,103 @@
       <c r="H5" s="1">
         <v>45937.055185185185</v>
       </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I5" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
       <c r="A6">
+        <v>183788</v>
+      </c>
+      <c r="B6" t="s">
+        <v>33</v>
+      </c>
+      <c r="C6" t="s">
+        <v>34</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E6" t="s">
+        <v>9</v>
+      </c>
+      <c r="F6" t="s">
+        <v>35</v>
+      </c>
+      <c r="G6">
+        <v>10737</v>
+      </c>
+      <c r="H6" s="1">
+        <v>45941.346076388887</v>
+      </c>
+      <c r="I6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
+      <c r="A7">
+        <v>183788</v>
+      </c>
+      <c r="B7" t="s">
+        <v>33</v>
+      </c>
+      <c r="C7" t="s">
+        <v>34</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="E7" t="s">
+        <v>9</v>
+      </c>
+      <c r="F7" t="s">
+        <v>35</v>
+      </c>
+      <c r="G7">
+        <v>10737</v>
+      </c>
+      <c r="H7" s="1">
+        <v>45941.346064814818</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
+      <c r="A8">
         <v>184422</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B8" t="s">
         <v>22</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C8" t="s">
         <v>29</v>
       </c>
-      <c r="D6" s="2" t="s">
+      <c r="D8" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="E6" t="s">
-        <v>9</v>
-      </c>
-      <c r="F6" t="s">
+      <c r="E8" t="s">
+        <v>9</v>
+      </c>
+      <c r="F8" t="s">
         <v>14</v>
       </c>
-      <c r="G6">
+      <c r="G8">
         <v>10408</v>
       </c>
-      <c r="H6" s="1" t="s">
+      <c r="H8" s="1" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A7">
+      <c r="I8" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
+      <c r="A9">
         <v>172144</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B9" t="s">
         <v>85</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C9" t="s">
         <v>86</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E7" t="s">
-        <v>9</v>
-      </c>
-      <c r="F7" t="s">
-        <v>87</v>
-      </c>
-      <c r="G7" t="s">
-        <v>88</v>
-      </c>
-      <c r="H7" s="1">
-        <v>45937.055185185185</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A8">
-        <v>172144</v>
-      </c>
-      <c r="B8" t="s">
-        <v>85</v>
-      </c>
-      <c r="C8" t="s">
-        <v>86</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E8" t="s">
-        <v>9</v>
-      </c>
-      <c r="F8" t="s">
-        <v>87</v>
-      </c>
-      <c r="G8" t="s">
-        <v>88</v>
-      </c>
-      <c r="H8" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A9">
-        <v>175738</v>
-      </c>
-      <c r="B9" t="s">
-        <v>26</v>
-      </c>
-      <c r="C9" t="s">
-        <v>27</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>13</v>
@@ -903,94 +913,100 @@
         <v>9</v>
       </c>
       <c r="F9" t="s">
+        <v>87</v>
+      </c>
+      <c r="G9" t="s">
+        <v>88</v>
+      </c>
+      <c r="H9" s="1">
+        <v>45937.055185185185</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
+      <c r="A10">
+        <v>172144</v>
+      </c>
+      <c r="B10" t="s">
+        <v>85</v>
+      </c>
+      <c r="C10" t="s">
+        <v>86</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E10" t="s">
+        <v>9</v>
+      </c>
+      <c r="F10" t="s">
+        <v>87</v>
+      </c>
+      <c r="G10" t="s">
+        <v>88</v>
+      </c>
+      <c r="H10" t="s">
+        <v>89</v>
+      </c>
+      <c r="I10" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
+      <c r="A11">
+        <v>175738</v>
+      </c>
+      <c r="B11" t="s">
+        <v>26</v>
+      </c>
+      <c r="C11" t="s">
+        <v>27</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E11" t="s">
+        <v>9</v>
+      </c>
+      <c r="F11" t="s">
         <v>18</v>
       </c>
-      <c r="G9">
+      <c r="G11">
         <v>10179</v>
       </c>
-      <c r="H9" s="1">
+      <c r="H11" s="1">
         <v>45937.837893518517</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A10">
+    <row r="12" spans="1:9">
+      <c r="A12">
         <v>175738</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B12" t="s">
         <v>26</v>
       </c>
-      <c r="C10" t="s">
+      <c r="C12" t="s">
         <v>27</v>
       </c>
-      <c r="D10" s="2" t="s">
+      <c r="D12" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="E10" t="s">
-        <v>9</v>
-      </c>
-      <c r="F10" t="s">
+      <c r="E12" t="s">
+        <v>9</v>
+      </c>
+      <c r="F12" t="s">
         <v>17</v>
       </c>
-      <c r="G10">
+      <c r="G12">
         <v>10180</v>
       </c>
-      <c r="H10" s="1">
+      <c r="H12" s="1">
         <v>45937.83829861111</v>
       </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A11">
-        <v>183788</v>
-      </c>
-      <c r="B11" t="s">
-        <v>33</v>
-      </c>
-      <c r="C11" t="s">
-        <v>34</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="E11" t="s">
-        <v>9</v>
-      </c>
-      <c r="F11" t="s">
-        <v>35</v>
-      </c>
-      <c r="G11">
-        <v>10736</v>
-      </c>
-      <c r="H11" s="1">
-        <v>45941.346053240741</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A12">
-        <v>183788</v>
-      </c>
-      <c r="B12" t="s">
-        <v>33</v>
-      </c>
-      <c r="C12" t="s">
-        <v>34</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E12" t="s">
-        <v>9</v>
-      </c>
-      <c r="F12" t="s">
-        <v>35</v>
-      </c>
-      <c r="G12">
-        <v>10737</v>
-      </c>
-      <c r="H12" s="1">
-        <v>45941.346076388887</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I12" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
       <c r="A13" t="s">
         <v>91</v>
       </c>
@@ -1015,8 +1031,11 @@
       <c r="H13" s="1">
         <v>45937.678495370368</v>
       </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I13" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
       <c r="A14">
         <v>146490</v>
       </c>
@@ -1041,9 +1060,12 @@
       <c r="H14" s="1">
         <v>45941.346076388887</v>
       </c>
+      <c r="I14" t="s">
+        <v>94</v>
+      </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:H167">
+  <sortState ref="A2:H167">
     <sortCondition ref="C1"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1052,19 +1074,19 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C1" sqref="C1:C1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15.75"/>
   <cols>
-    <col min="4" max="4" width="3.83203125" style="2" customWidth="1"/>
+    <col min="4" max="4" width="3.85546875" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" ht="16.5" thickBot="1">
       <c r="A1" s="3" t="s">
         <v>36</v>
       </c>
@@ -1090,7 +1112,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8">
       <c r="A2">
         <v>51422</v>
       </c>
@@ -1116,7 +1138,7 @@
         <v>45936.764953703707</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:8">
       <c r="A3">
         <v>90001</v>
       </c>
@@ -1142,7 +1164,7 @@
         <v>45935.921215277776</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:8">
       <c r="A4">
         <v>90002</v>
       </c>
@@ -1168,7 +1190,7 @@
         <v>45936.857395833336</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:8">
       <c r="A5">
         <v>47554</v>
       </c>
@@ -1194,7 +1216,7 @@
         <v>45938.706574074073</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:8">
       <c r="A6">
         <v>51421</v>
       </c>
@@ -1220,7 +1242,7 @@
         <v>45935.899155092593</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:8">
       <c r="A7">
         <v>28381</v>
       </c>
@@ -1246,7 +1268,7 @@
         <v>45937.683645833335</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:8">
       <c r="A8">
         <v>150759</v>
       </c>
@@ -1272,7 +1294,7 @@
         <v>45936.95071759259</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:8">
       <c r="A9">
         <v>150759</v>
       </c>
@@ -1298,7 +1320,7 @@
         <v>45936.950740740744</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:8">
       <c r="A10">
         <v>173984</v>
       </c>
@@ -1324,7 +1346,7 @@
         <v>45938.674155092594</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:8">
       <c r="A11">
         <v>27647</v>
       </c>
@@ -1350,7 +1372,7 @@
         <v>45935.920671296299</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:8">
       <c r="A12">
         <v>49520</v>
       </c>
@@ -1376,7 +1398,7 @@
         <v>45936.612187500003</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:8">
       <c r="A13">
         <v>86302</v>
       </c>
@@ -1402,7 +1424,7 @@
         <v>45936.671817129631</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:8">
       <c r="A14">
         <v>51711</v>
       </c>
@@ -1428,7 +1450,7 @@
         <v>45936.861192129632</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:8">
       <c r="A15">
         <v>187174</v>
       </c>
@@ -1454,7 +1476,7 @@
         <v>45938.997175925928</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:8">
       <c r="A16">
         <v>173647</v>
       </c>
@@ -1480,7 +1502,7 @@
         <v>45938.075706018521</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:8">
       <c r="A17">
         <v>86407</v>
       </c>
@@ -1506,7 +1528,7 @@
         <v>45936.856736111113</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:8">
       <c r="A18">
         <v>20896</v>
       </c>
@@ -1532,7 +1554,7 @@
         <v>45935.920185185183</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:8">
       <c r="A19">
         <v>146490</v>
       </c>
@@ -1558,7 +1580,7 @@
         <v>45938.153912037036</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:8">
       <c r="A20">
         <v>49823</v>
       </c>
@@ -1584,7 +1606,7 @@
         <v>45940.03466435185</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:8">
       <c r="A21">
         <v>173240</v>
       </c>
@@ -1610,7 +1632,7 @@
         <v>45938.951689814814</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:8">
       <c r="A22">
         <v>174421</v>
       </c>
@@ -1637,7 +1659,7 @@
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:H22">
+  <sortState ref="A2:H22">
     <sortCondition ref="C1"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1645,12 +1667,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
